--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121273a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121273a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.6906713719105717</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.7006971388827247</v>
+      </c>
+      <c r="C5">
+        <v>0.7115068514142859</v>
+      </c>
+      <c r="D5">
+        <v>0.7224017531340889</v>
+      </c>
+      <c r="E5">
+        <v>1.264703793815707</v>
+      </c>
+      <c r="F5">
+        <v>0.789214819487206</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.7006971388827247</v>
+        <v>1.493477155056306</v>
       </c>
       <c r="C6">
-        <v>0.7115068514142859</v>
+        <v>1.467215353568711</v>
       </c>
       <c r="D6">
-        <v>0.7224017531340889</v>
+        <v>1.432637131284467</v>
       </c>
       <c r="E6">
-        <v>1.264703793815707</v>
+        <v>4.507745804639476</v>
       </c>
       <c r="F6">
-        <v>0.789214819487206</v>
+        <v>1.70368946932452</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1.493477155056306</v>
+        <v>3.397100745969429</v>
       </c>
       <c r="C7">
-        <v>1.467215353568711</v>
+        <v>3.18999323301483</v>
       </c>
       <c r="D7">
-        <v>1.432637131284467</v>
+        <v>3.16108589220501</v>
       </c>
       <c r="E7">
-        <v>4.507745804639476</v>
+        <v>4.751609681745967</v>
       </c>
       <c r="F7">
-        <v>1.70368946932452</v>
+        <v>3.965006554564066</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2.799733739902242</v>
+      </c>
+      <c r="C8">
+        <v>3.154895197209975</v>
+      </c>
+      <c r="D8">
+        <v>3.329221401781691</v>
+      </c>
+      <c r="E8">
+        <v>6.328744643655662</v>
+      </c>
+      <c r="F8">
+        <v>2.990170605540724</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>3.397100745969429</v>
+        <v>11.45605862855805</v>
       </c>
       <c r="C9">
-        <v>3.18999323301483</v>
+        <v>11.19581984441577</v>
       </c>
       <c r="D9">
-        <v>3.16108589220501</v>
+        <v>11.23400193058471</v>
       </c>
       <c r="E9">
-        <v>4.751609681745967</v>
+        <v>13.31851618444853</v>
       </c>
       <c r="F9">
-        <v>3.965006554564066</v>
+        <v>12.5682689711129</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>2.799733739902242</v>
+        <v>4.276446206546409</v>
       </c>
       <c r="C10">
-        <v>3.154895197209975</v>
+        <v>3.979723270097586</v>
       </c>
       <c r="D10">
-        <v>3.329221401781691</v>
+        <v>3.917197155385229</v>
       </c>
       <c r="E10">
-        <v>6.328744643655662</v>
+        <v>9.204343033708598</v>
       </c>
       <c r="F10">
-        <v>2.990170605540724</v>
+        <v>5.177084534703258</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>11.45605862855805</v>
+        <v>4.376312156228948</v>
       </c>
       <c r="C11">
-        <v>11.19581984441577</v>
+        <v>4.453096626646423</v>
       </c>
       <c r="D11">
-        <v>11.23400193058471</v>
+        <v>4.202864661206735</v>
       </c>
       <c r="E11">
-        <v>13.31851618444853</v>
+        <v>10.68844763444803</v>
       </c>
       <c r="F11">
-        <v>12.5682689711129</v>
+        <v>4.804397226194853</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>4.276446206546409</v>
+        <v>8.557475742034605</v>
       </c>
       <c r="C12">
-        <v>3.979723270097586</v>
+        <v>8.531038082250987</v>
       </c>
       <c r="D12">
-        <v>3.917197155385229</v>
+        <v>8.529777805759315</v>
       </c>
       <c r="E12">
-        <v>9.204343033708598</v>
+        <v>10.14953081491359</v>
       </c>
       <c r="F12">
-        <v>5.177084534703258</v>
+        <v>9.09523302108386</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>4.376312156228948</v>
+        <v>8.76438314984467</v>
       </c>
       <c r="C13">
-        <v>4.453096626646423</v>
+        <v>8.268872401310583</v>
       </c>
       <c r="D13">
-        <v>4.202864661206735</v>
+        <v>8.654106062075668</v>
       </c>
       <c r="E13">
-        <v>10.68844763444803</v>
+        <v>10.0375803226791</v>
       </c>
       <c r="F13">
-        <v>4.804397226194853</v>
+        <v>9.499609470115328</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>8.557475742034605</v>
+        <v>3.128747707857803</v>
       </c>
       <c r="C14">
-        <v>8.531038082250987</v>
+        <v>3.431567155130697</v>
       </c>
       <c r="D14">
-        <v>8.529777805759315</v>
+        <v>3.353848536208738</v>
       </c>
       <c r="E14">
-        <v>10.14953081491359</v>
+        <v>7.32574267290963</v>
       </c>
       <c r="F14">
-        <v>9.09523302108386</v>
+        <v>2.865286847109357</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>8.76438314984467</v>
+        <v>1.671660636326493</v>
       </c>
       <c r="C15">
-        <v>8.268872401310583</v>
+        <v>1.696073846716691</v>
       </c>
       <c r="D15">
-        <v>8.654106062075668</v>
+        <v>1.74019878028635</v>
       </c>
       <c r="E15">
-        <v>10.0375803226791</v>
+        <v>2.241977905436883</v>
       </c>
       <c r="F15">
-        <v>9.499609470115328</v>
+        <v>1.803559818196131</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>3.128747707857803</v>
+        <v>8.004064990087455</v>
       </c>
       <c r="C16">
-        <v>3.431567155130697</v>
+        <v>7.89352643650177</v>
       </c>
       <c r="D16">
-        <v>3.353848536208738</v>
+        <v>8.097354096735193</v>
       </c>
       <c r="E16">
-        <v>7.32574267290963</v>
+        <v>8.44987222582858</v>
       </c>
       <c r="F16">
-        <v>2.865286847109357</v>
+        <v>8.618141139559375</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>1.671660636326493</v>
+        <v>5.660274782198973</v>
       </c>
       <c r="C17">
-        <v>1.696073846716691</v>
+        <v>6.015545755954585</v>
       </c>
       <c r="D17">
-        <v>1.74019878028635</v>
+        <v>6.001284226122307</v>
       </c>
       <c r="E17">
-        <v>2.241977905436883</v>
+        <v>11.69503241967631</v>
       </c>
       <c r="F17">
-        <v>1.803559818196131</v>
+        <v>5.434307127720509</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>8.004064990087455</v>
+        <v>4.07463890643841</v>
       </c>
       <c r="C18">
-        <v>7.89352643650177</v>
+        <v>3.968535230986811</v>
       </c>
       <c r="D18">
-        <v>8.097354096735193</v>
+        <v>4.074921110167661</v>
       </c>
       <c r="E18">
-        <v>8.44987222582858</v>
+        <v>5.272519758582565</v>
       </c>
       <c r="F18">
-        <v>8.618141139559375</v>
+        <v>4.707096699639706</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>5.660274782198973</v>
+        <v>9.048653178928317</v>
       </c>
       <c r="C19">
-        <v>6.015545755954585</v>
+        <v>9.709925925188324</v>
       </c>
       <c r="D19">
-        <v>6.001284226122307</v>
+        <v>9.933727610739545</v>
       </c>
       <c r="E19">
-        <v>11.69503241967631</v>
+        <v>9.088834553878517</v>
       </c>
       <c r="F19">
-        <v>5.434307127720509</v>
+        <v>8.495746153034704</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>4.07463890643841</v>
+        <v>5.584940896054857</v>
       </c>
       <c r="C20">
-        <v>3.968535230986811</v>
+        <v>5.304210785023172</v>
       </c>
       <c r="D20">
-        <v>4.074921110167661</v>
+        <v>5.544810624354477</v>
       </c>
       <c r="E20">
-        <v>5.272519758582565</v>
+        <v>7.655024061651342</v>
       </c>
       <c r="F20">
-        <v>4.707096699639706</v>
+        <v>5.960215728444014</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>9.048653178928317</v>
+        <v>2.756252961321327</v>
       </c>
       <c r="C21">
-        <v>9.709925925188324</v>
+        <v>3.431325080681583</v>
       </c>
       <c r="D21">
-        <v>9.933727610739545</v>
+        <v>3.397115085399878</v>
       </c>
       <c r="E21">
-        <v>9.088834553878517</v>
+        <v>4.579769635648724</v>
       </c>
       <c r="F21">
-        <v>8.495746153034704</v>
+        <v>2.459597082512913</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>5.584940896054857</v>
+        <v>8.569540049541555</v>
       </c>
       <c r="C22">
-        <v>5.304210785023172</v>
+        <v>9.028310007621306</v>
       </c>
       <c r="D22">
-        <v>5.544810624354477</v>
+        <v>9.557130712935413</v>
       </c>
       <c r="E22">
-        <v>7.655024061651342</v>
+        <v>9.029349793385586</v>
       </c>
       <c r="F22">
-        <v>5.960215728444014</v>
+        <v>8.418467368132704</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>2.756252961321327</v>
+        <v>5.551153259693107</v>
       </c>
       <c r="C23">
-        <v>3.431325080681583</v>
+        <v>6.621497272547397</v>
       </c>
       <c r="D23">
-        <v>3.397115085399878</v>
+        <v>6.461216393992969</v>
       </c>
       <c r="E23">
-        <v>4.579769635648724</v>
+        <v>12.06687709169669</v>
       </c>
       <c r="F23">
-        <v>2.459597082512913</v>
+        <v>4.481412520647761</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>8.569540049541555</v>
+        <v>2.717221721983847</v>
       </c>
       <c r="C24">
-        <v>9.028310007621306</v>
+        <v>2.693387913782469</v>
       </c>
       <c r="D24">
-        <v>9.557130712935413</v>
+        <v>2.775835926489356</v>
       </c>
       <c r="E24">
-        <v>9.029349793385586</v>
+        <v>4.03302813312915</v>
       </c>
       <c r="F24">
-        <v>8.418467368132704</v>
+        <v>3.022569712917647</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>5.551153259693107</v>
+        <v>0.9416625045584061</v>
       </c>
       <c r="C25">
-        <v>6.621497272547397</v>
+        <v>0.9915234735469869</v>
       </c>
       <c r="D25">
-        <v>6.461216393992969</v>
+        <v>1.005228444561367</v>
       </c>
       <c r="E25">
-        <v>12.06687709169669</v>
+        <v>1.948557692219767</v>
       </c>
       <c r="F25">
-        <v>4.481412520647761</v>
+        <v>1.025869792799281</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>2.717221721983847</v>
+        <v>1.872325235677548</v>
       </c>
       <c r="C26">
-        <v>2.693387913782469</v>
+        <v>1.941004976436842</v>
       </c>
       <c r="D26">
-        <v>2.775835926489356</v>
+        <v>1.906112857187289</v>
       </c>
       <c r="E26">
-        <v>4.03302813312915</v>
+        <v>3.891554374496434</v>
       </c>
       <c r="F26">
-        <v>3.022569712917647</v>
+        <v>1.952603625672853</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0.9416625045584061</v>
+        <v>3.820866609919103</v>
       </c>
       <c r="C27">
-        <v>0.9915234735469869</v>
+        <v>4.372330407717035</v>
       </c>
       <c r="D27">
-        <v>1.005228444561367</v>
+        <v>4.603703986973033</v>
       </c>
       <c r="E27">
-        <v>1.948557692219767</v>
+        <v>8.952251396721946</v>
       </c>
       <c r="F27">
-        <v>1.025869792799281</v>
+        <v>3.62334008885307</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>1.872325235677548</v>
+        <v>2.27049841959801</v>
       </c>
       <c r="C28">
-        <v>1.941004976436842</v>
+        <v>2.445717887554478</v>
       </c>
       <c r="D28">
-        <v>1.906112857187289</v>
+        <v>2.471147282614508</v>
       </c>
       <c r="E28">
-        <v>3.891554374496434</v>
+        <v>4.107375291943792</v>
       </c>
       <c r="F28">
-        <v>1.952603625672853</v>
+        <v>2.371488330935309</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>3.820866609919103</v>
+        <v>1.299701116255888</v>
       </c>
       <c r="C29">
-        <v>4.372330407717035</v>
+        <v>1.352243221486315</v>
       </c>
       <c r="D29">
-        <v>4.603703986973033</v>
+        <v>1.39243815059632</v>
       </c>
       <c r="E29">
-        <v>8.952251396721946</v>
+        <v>2.735000030817388</v>
       </c>
       <c r="F29">
-        <v>3.62334008885307</v>
+        <v>1.487446034976241</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>2.27049841959801</v>
+        <v>1.370830733887644</v>
       </c>
       <c r="C30">
-        <v>2.445717887554478</v>
+        <v>1.445204404382229</v>
       </c>
       <c r="D30">
-        <v>2.471147282614508</v>
+        <v>1.474815616660868</v>
       </c>
       <c r="E30">
-        <v>4.107375291943792</v>
+        <v>2.38530035721293</v>
       </c>
       <c r="F30">
-        <v>2.371488330935309</v>
+        <v>1.412075661312644</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>1.299701116255888</v>
+        <v>2.196571755331435</v>
       </c>
       <c r="C31">
-        <v>1.352243221486315</v>
+        <v>2.337017598352907</v>
       </c>
       <c r="D31">
-        <v>1.39243815059632</v>
+        <v>2.418099291305772</v>
       </c>
       <c r="E31">
-        <v>2.735000030817388</v>
+        <v>4.009269674033637</v>
       </c>
       <c r="F31">
-        <v>1.487446034976241</v>
+        <v>2.319412553514075</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>1.370830733887644</v>
+        <v>3.68014068075559</v>
       </c>
       <c r="C32">
-        <v>1.445204404382229</v>
+        <v>3.777705866083653</v>
       </c>
       <c r="D32">
-        <v>1.474815616660868</v>
+        <v>3.728220980688889</v>
       </c>
       <c r="E32">
-        <v>2.38530035721293</v>
+        <v>6.347217952225527</v>
       </c>
       <c r="F32">
-        <v>1.412075661312644</v>
+        <v>3.641623067813002</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>2.196571755331435</v>
+        <v>1.640927281200707</v>
       </c>
       <c r="C33">
-        <v>2.337017598352907</v>
+        <v>1.649041810758139</v>
       </c>
       <c r="D33">
-        <v>2.418099291305772</v>
+        <v>1.710944384711076</v>
       </c>
       <c r="E33">
-        <v>4.009269674033637</v>
+        <v>3.452109761418337</v>
       </c>
       <c r="F33">
-        <v>2.319412553514075</v>
+        <v>1.930416541950063</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>3.68014068075559</v>
+        <v>1.411729464675901</v>
       </c>
       <c r="C34">
-        <v>3.777705866083653</v>
+        <v>1.48661453101703</v>
       </c>
       <c r="D34">
-        <v>3.728220980688889</v>
+        <v>1.503690751006762</v>
       </c>
       <c r="E34">
-        <v>6.347217952225527</v>
+        <v>2.994439445065267</v>
       </c>
       <c r="F34">
-        <v>3.641623067813002</v>
+        <v>1.653379688481775</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>1.640927281200707</v>
+        <v>3.209940761680517</v>
       </c>
       <c r="C35">
-        <v>1.649041810758139</v>
+        <v>3.070472306839044</v>
       </c>
       <c r="D35">
-        <v>1.710944384711076</v>
+        <v>3.097370040643902</v>
       </c>
       <c r="E35">
-        <v>3.452109761418337</v>
+        <v>5.754829312038329</v>
       </c>
       <c r="F35">
-        <v>1.930416541950063</v>
+        <v>3.840159317442439</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>1.411729464675901</v>
+        <v>2.77654037066981</v>
       </c>
       <c r="C36">
-        <v>1.48661453101703</v>
+        <v>3.373694033974485</v>
       </c>
       <c r="D36">
-        <v>1.503690751006762</v>
+        <v>3.500106963538834</v>
       </c>
       <c r="E36">
-        <v>2.994439445065267</v>
+        <v>6.948174668106057</v>
       </c>
       <c r="F36">
-        <v>1.653379688481775</v>
+        <v>2.588635319665887</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>3.209940761680517</v>
+        <v>2.212800153550007</v>
       </c>
       <c r="C37">
-        <v>3.070472306839044</v>
+        <v>2.296505658587017</v>
       </c>
       <c r="D37">
-        <v>3.097370040643902</v>
+        <v>2.291491618340039</v>
       </c>
       <c r="E37">
-        <v>5.754829312038329</v>
+        <v>4.833605234357085</v>
       </c>
       <c r="F37">
-        <v>3.840159317442439</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>2.77654037066981</v>
-      </c>
-      <c r="C38">
-        <v>3.373694033974485</v>
-      </c>
-      <c r="D38">
-        <v>3.500106963538834</v>
-      </c>
-      <c r="E38">
-        <v>6.948174668106057</v>
-      </c>
-      <c r="F38">
-        <v>2.588635319665887</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>2.212800153550007</v>
-      </c>
-      <c r="C39">
-        <v>2.296505658587017</v>
-      </c>
-      <c r="D39">
-        <v>2.291491618340039</v>
-      </c>
-      <c r="E39">
-        <v>4.833605234357085</v>
-      </c>
-      <c r="F39">
         <v>2.684717684496512</v>
       </c>
     </row>
